--- a/eyzaguirre.xlsx
+++ b/eyzaguirre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RHEP local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REYZAGUIRRE\GitHubRepos\arbol_familiar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DACE0C3-1041-4109-9624-440135521C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6468A1-620C-40A8-AFCA-54C436DBD082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15990" xr2:uid="{29CD94F3-EEBB-4457-B1DD-9B656BAD3EA1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$931</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$932</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="99">
   <si>
     <t>padre</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>Hector Liendo Eyzaguirre</t>
+  </si>
+  <si>
+    <t>Heriberto Eyzaguirre Acevedo</t>
+  </si>
+  <si>
+    <t>Victor Eyzaguirre Acevedo</t>
+  </si>
+  <si>
+    <t>Juan Abel Eyzaguirre Fuenzalida</t>
+  </si>
+  <si>
+    <t>Virginia Fuenzalida</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -496,26 +508,6 @@
     <cellStyle name="Normal 6" xfId="2" xr:uid="{9EC61D60-AC75-45AD-80BC-D65EE23EE9F6}"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -574,6 +566,26 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -588,10 +600,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B862F43-74FB-4128-81C3-CFB558B3F977}" name="Tabla2" displayName="Tabla2" ref="A1:B931" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="1" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B862F43-74FB-4128-81C3-CFB558B3F977}" name="Tabla2" displayName="Tabla2" ref="A1:B932" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{481CC234-0881-401C-9AAB-E84C561F41AA}" name="padre" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{98C3BC94-B609-497F-A103-32EA27C45224}" name="madre" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{481CC234-0881-401C-9AAB-E84C561F41AA}" name="padre" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{98C3BC94-B609-497F-A103-32EA27C45224}" name="madre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -914,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62E6D06-4C68-4D20-A76D-7A3769ADC1B8}">
-  <dimension ref="A1:D931"/>
+  <dimension ref="A1:D932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,28 +1195,24 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="6" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D26" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -1218,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -1232,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -1246,10 +1254,10 @@
         <v>11</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,10 +1268,10 @@
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -1288,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -1302,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,21 +1324,21 @@
         <v>11</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -1344,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -1358,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
@@ -1400,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -1414,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -1428,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -1436,16 +1444,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,10 +1478,10 @@
         <v>29</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,10 +1492,10 @@
         <v>29</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1506,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -1512,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -1526,7 +1534,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -1534,13 +1542,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -1554,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -1568,24 +1576,24 @@
         <v>36</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
@@ -1610,24 +1618,24 @@
         <v>40</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D57" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,7 +1646,7 @@
         <v>44</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -1652,24 +1660,24 @@
         <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D60" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,21 +1688,21 @@
         <v>43</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
@@ -1702,16 +1710,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D63" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,7 +1730,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -1736,21 +1744,21 @@
         <v>39</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="8">
         <v>2</v>
@@ -1764,7 +1772,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="8">
         <v>2</v>
@@ -1778,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
@@ -1786,13 +1794,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="8">
         <v>2</v>
@@ -1806,7 +1814,7 @@
         <v>59</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70" s="8">
         <v>2</v>
@@ -1820,10 +1828,10 @@
         <v>59</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,7 +1842,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
@@ -1842,13 +1850,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -1862,21 +1870,21 @@
         <v>63</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D75" s="8">
         <v>2</v>
@@ -1890,10 +1898,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,7 +1912,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
@@ -1912,13 +1920,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D78" s="8">
         <v>1</v>
@@ -1932,10 +1940,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1946,7 +1954,7 @@
         <v>74</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="8">
         <v>2</v>
@@ -1954,16 +1962,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D81" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1974,24 +1982,24 @@
         <v>60</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D83" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2002,7 +2010,7 @@
         <v>61</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
@@ -2010,16 +2018,16 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D85" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,7 +2038,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="8">
         <v>2</v>
@@ -2044,24 +2052,24 @@
         <v>84</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D88" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2072,10 +2080,10 @@
         <v>85</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,24 +2094,24 @@
         <v>85</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D91" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2114,31 +2122,67 @@
         <v>86</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="A95" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="A96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
@@ -2846,9 +2890,9 @@
       <c r="C237" s="6"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
@@ -6311,9 +6355,14 @@
       <c r="C930" s="1"/>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A931" s="2"/>
-      <c r="B931" s="5"/>
-      <c r="C931" s="2"/>
+      <c r="A931" s="1"/>
+      <c r="B931" s="3"/>
+      <c r="C931" s="1"/>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A932" s="2"/>
+      <c r="B932" s="5"/>
+      <c r="C932" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
